--- a/xlsx/pension/individual/1875_pension_individual_pension.xlsx
+++ b/xlsx/pension/individual/1875_pension_individual_pension.xlsx
@@ -1233,13 +1233,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1250,7 +1256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1264,6 +1270,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1286,29 +1299,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1690,7 +1696,7 @@
     <col min="57" max="57" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1861,7 +1867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2">
         <v>321</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2">
         <v>323</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2">
         <v>324</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2">
         <v>327</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2">
         <v>328</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2">
         <v>330</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2">
         <v>340</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2">
         <v>343</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2">
         <v>345</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2">
         <v>466</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2">
         <v>553</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2">
         <v>564</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2">
         <v>565</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2">
         <v>568</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2">
         <v>569</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2">
         <v>570</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2">
         <v>571</v>
       </c>
